--- a/src/Kontrolforsøg_ai_text_samlet.xlsx
+++ b/src/Kontrolforsøg_ai_text_samlet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anja\OneDrive - Gravercentret\Dokumenter\Python_projekter\kommune_investering\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB8E3D4-D062-4EED-9CFC-9B7300CA0599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3E9CB2-A1C2-4FC9-93D3-D55586F59ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4169F276-BD1B-0944-B9D3-5A0FC0009D7D}"/>
   </bookViews>
   <sheets>
-    <sheet name="11 Tilfældige kommuner" sheetId="1" r:id="rId1"/>
+    <sheet name="Samlet" sheetId="1" r:id="rId1"/>
     <sheet name="Fælles for alle kommuner" sheetId="2" r:id="rId2"/>
     <sheet name="Top 10 - Markedsværdi" sheetId="3" r:id="rId3"/>
     <sheet name="Top 10 - Antal investeringer" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="307">
   <si>
     <t xml:space="preserve">Fjern </t>
   </si>
@@ -292,6 +292,663 @@
   </si>
   <si>
     <t>Ændring</t>
+  </si>
+  <si>
+    <t>Aabenraa</t>
+  </si>
+  <si>
+    <t>Uholdbare transportmetoder (f.eks. flyselskaber)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flyselskaber </t>
+  </si>
+  <si>
+    <t>Ny fra den 2. oktober</t>
+  </si>
+  <si>
+    <t>Albertslund</t>
+  </si>
+  <si>
+    <t>Allerød</t>
+  </si>
+  <si>
+    <t>Ballerup</t>
+  </si>
+  <si>
+    <t>Spil (gambling)</t>
+  </si>
+  <si>
+    <t>Gældende løsninger relateret til fossile brændstoffer (fossil ekspansion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fossil ekspansion </t>
+  </si>
+  <si>
+    <t>Israel/Palæstina-konflikten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billund </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bornholm </t>
+  </si>
+  <si>
+    <t>Investeringer i flyselskaber</t>
+  </si>
+  <si>
+    <t>Brøndby</t>
+  </si>
+  <si>
+    <t>Israelske/Palæstinensiske konflikter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brønderslev </t>
+  </si>
+  <si>
+    <t>Engagement i flyselskaber</t>
+  </si>
+  <si>
+    <t>Inddragelse i gambling</t>
+  </si>
+  <si>
+    <t>Konflikter mellem Israel og Palæstina</t>
+  </si>
+  <si>
+    <t>Deltagelse i krydstogtskibsindustrien</t>
+  </si>
+  <si>
+    <t>Landepolitik, der påvirker bæredygtighed</t>
+  </si>
+  <si>
+    <t>Overordnede normer for investeringer</t>
+  </si>
+  <si>
+    <t>Uholdbar kuludvinding</t>
+  </si>
+  <si>
+    <t>Produktion af usunde fødevarer</t>
+  </si>
+  <si>
+    <t>Dragør</t>
+  </si>
+  <si>
+    <t>Egedal</t>
+  </si>
+  <si>
+    <t>Udsatte politiske forhold, herunder Israel/Palæstina konflikten.</t>
+  </si>
+  <si>
+    <t>Favrskov</t>
+  </si>
+  <si>
+    <t>Flytransport relateret virksomhed</t>
+  </si>
+  <si>
+    <t>Manglende respekt for ILO-standarder</t>
+  </si>
+  <si>
+    <t>Landepolitik og konfliktområder</t>
+  </si>
+  <si>
+    <t>Lave klimaambitioner</t>
+  </si>
+  <si>
+    <t>Udfordringer omkring menneskerettigheder</t>
+  </si>
+  <si>
+    <t>Normovertrædelser relateret til menneskerettigheder</t>
+  </si>
+  <si>
+    <t>Faxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fredensborg </t>
+  </si>
+  <si>
+    <t>Normer og værdier</t>
+  </si>
+  <si>
+    <t>Normer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fredericia </t>
+  </si>
+  <si>
+    <t>God ledelsespraksis</t>
+  </si>
+  <si>
+    <t>Internationale normer og konventioner</t>
+  </si>
+  <si>
+    <t>Normbrud og miljøovertrædelser</t>
+  </si>
+  <si>
+    <t>Normbrud</t>
+  </si>
+  <si>
+    <t>Frederikshavn</t>
+  </si>
+  <si>
+    <t>Frederikssund</t>
+  </si>
+  <si>
+    <t>Furesø</t>
+  </si>
+  <si>
+    <t>Gentofte</t>
+  </si>
+  <si>
+    <t>Gladsaxe</t>
+  </si>
+  <si>
+    <t>Glostrup</t>
+  </si>
+  <si>
+    <t>Greve</t>
+  </si>
+  <si>
+    <t>Ejendomsopkøb i konfliktområder</t>
+  </si>
+  <si>
+    <t>Indflydelse på landepolitik og naturressourcer</t>
+  </si>
+  <si>
+    <t>OBS! SKAL BLIVE TIL TO</t>
+  </si>
+  <si>
+    <t>Naturressourcer</t>
+  </si>
+  <si>
+    <t>Gribskov</t>
+  </si>
+  <si>
+    <t>Haderslev</t>
+  </si>
+  <si>
+    <t>Halnæs</t>
+  </si>
+  <si>
+    <t>Hedensted</t>
+  </si>
+  <si>
+    <t>Ejendomsopkøb og investeringer i konfliktområder</t>
+  </si>
+  <si>
+    <t>Helsingør</t>
+  </si>
+  <si>
+    <t>Herlev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hillerød </t>
+  </si>
+  <si>
+    <t>International normoverholdelse</t>
+  </si>
+  <si>
+    <t>Miljømæssige normovertrædelser</t>
+  </si>
+  <si>
+    <t>Udsættelse af menneskers sundhed for usunde fødevarer</t>
+  </si>
+  <si>
+    <t>Undgåelse af aktiviteter, der strider imod internationale normer og konventioner</t>
+  </si>
+  <si>
+    <t>Hjørring</t>
+  </si>
+  <si>
+    <t>Holbæk</t>
+  </si>
+  <si>
+    <t>Olieindustri</t>
+  </si>
+  <si>
+    <t>Holstebro</t>
+  </si>
+  <si>
+    <t>Overholdelse af EU sanktioner</t>
+  </si>
+  <si>
+    <t>Forbindelse til flyselskaber</t>
+  </si>
+  <si>
+    <t>Fossil energikilder og transition til bæredygtige alternativer</t>
+  </si>
+  <si>
+    <t>Fossil brændstof</t>
+  </si>
+  <si>
+    <t>Israel/Palæstina spørgsmål</t>
+  </si>
+  <si>
+    <t>Mangel på klimaambitioner</t>
+  </si>
+  <si>
+    <t>Olie og eksponering for ukonventionel olie og gas (over 5%)</t>
+  </si>
+  <si>
+    <t>Olie og eksponering for ukonventionel olie og gas</t>
+  </si>
+  <si>
+    <t>Deltagelse i usunde fødevarer</t>
+  </si>
+  <si>
+    <t>Sikkerhedsforhold og risici</t>
+  </si>
+  <si>
+    <t>Sikkerhedsforhold</t>
+  </si>
+  <si>
+    <t>Udfordringer relateret til landepolitik</t>
+  </si>
+  <si>
+    <t>Horsens</t>
+  </si>
+  <si>
+    <t>Deltagelse i produktion af kontroversielle våben</t>
+  </si>
+  <si>
+    <t>Hvidovre</t>
+  </si>
+  <si>
+    <t>Inden for flyselskaber</t>
+  </si>
+  <si>
+    <t>Konflikten mellem Israel og Palæstina</t>
+  </si>
+  <si>
+    <t>Høje Taastrup</t>
+  </si>
+  <si>
+    <t>Investering i fossil energi (kul, olie, gas)</t>
+  </si>
+  <si>
+    <t>Investering i fossil energi (kul og olie)</t>
+  </si>
+  <si>
+    <t>Ejendomsopkøb relateret til konfliktområder</t>
+  </si>
+  <si>
+    <t>Problematisk rolle i konflikter som Israel/Palestina</t>
+  </si>
+  <si>
+    <t>Udsatte miljøer og biodiversitet</t>
+  </si>
+  <si>
+    <t>Adgang til vand og landressourcer uden samtykke</t>
+  </si>
+  <si>
+    <t>Ikast-Brande</t>
+  </si>
+  <si>
+    <t>Ishøj</t>
+  </si>
+  <si>
+    <t>Jammerbugt</t>
+  </si>
+  <si>
+    <t>Krydskontroversielle aktiviteter, såsom krydstogtskibe</t>
+  </si>
+  <si>
+    <t>Kerteminde</t>
+  </si>
+  <si>
+    <t>Kolding</t>
+  </si>
+  <si>
+    <t>Konflikt relateret til Israel/Palæstina</t>
+  </si>
+  <si>
+    <t>Problematiske landepolitikker</t>
+  </si>
+  <si>
+    <t>Langeland</t>
+  </si>
+  <si>
+    <t>Lejre</t>
+  </si>
+  <si>
+    <t>Deltagelse i flyveselskaber</t>
+  </si>
+  <si>
+    <t>Indflydelse på sundheden via usunde fødevarer</t>
+  </si>
+  <si>
+    <t>Principal Adverse Impacts (PAI) i relation til sociale og miljømæssige faktorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal Adverse Impacts (PAI) </t>
+  </si>
+  <si>
+    <t>Lemvig</t>
+  </si>
+  <si>
+    <t>Lyngby-Taarbæk</t>
+  </si>
+  <si>
+    <t>Eksponering mod flyselskaber</t>
+  </si>
+  <si>
+    <t>Problemskabende landepolitik</t>
+  </si>
+  <si>
+    <t>Utilstrækkelige klimaambitioner</t>
+  </si>
+  <si>
+    <t>Middelfart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morsø </t>
+  </si>
+  <si>
+    <t>Norddjurs</t>
+  </si>
+  <si>
+    <t>Normbrud (miljø og menneskerettigheder)</t>
+  </si>
+  <si>
+    <t>Normbrud (menneskerettigheder)</t>
+  </si>
+  <si>
+    <t>Nordfyn</t>
+  </si>
+  <si>
+    <t>Uacceptabel kuludvinding</t>
+  </si>
+  <si>
+    <t>Nyborg</t>
+  </si>
+  <si>
+    <t>Involvering i flyselskaber</t>
+  </si>
+  <si>
+    <t>Næstved</t>
+  </si>
+  <si>
+    <t>Odder</t>
+  </si>
+  <si>
+    <t>Odsherred</t>
+  </si>
+  <si>
+    <t>Randers</t>
+  </si>
+  <si>
+    <t>Menneskerettigheder og humanitære forhold</t>
+  </si>
+  <si>
+    <t>Menneskerettigheder</t>
+  </si>
+  <si>
+    <t>Rebild</t>
+  </si>
+  <si>
+    <t>Anvendelse af kontroversielle våben</t>
+  </si>
+  <si>
+    <t>Kontroversielle våben</t>
+  </si>
+  <si>
+    <t>Uretmæssig landepolitik</t>
+  </si>
+  <si>
+    <t>Utilfredsstillende klimaambitioner</t>
+  </si>
+  <si>
+    <t>Tilvejebringelse af usunde fødevarer</t>
+  </si>
+  <si>
+    <t>Region Midtjylland</t>
+  </si>
+  <si>
+    <t>Region Syddanmark</t>
+  </si>
+  <si>
+    <t>Ringsted</t>
+  </si>
+  <si>
+    <t>Roskilde</t>
+  </si>
+  <si>
+    <t>Udsultende kuludvinding</t>
+  </si>
+  <si>
+    <t>Thermal coal extraction</t>
+  </si>
+  <si>
+    <t>Skanderborg</t>
+  </si>
+  <si>
+    <t>Involvering som flyselskab</t>
+  </si>
+  <si>
+    <t>Dårlig landepolitik</t>
+  </si>
+  <si>
+    <t>Handel med usunde fødevarer</t>
+  </si>
+  <si>
+    <t>Udsigt til termisk kuludvinding</t>
+  </si>
+  <si>
+    <t>NYT !!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slagelse </t>
+  </si>
+  <si>
+    <t>Ny fra den 3. oktober</t>
+  </si>
+  <si>
+    <t>Solrød</t>
+  </si>
+  <si>
+    <t>Involvering i kontroversielle våben</t>
+  </si>
+  <si>
+    <t>Investering i flyselskaber</t>
+  </si>
+  <si>
+    <t>Problematisk landepolitik</t>
+  </si>
+  <si>
+    <t>Manglende klimaambitiøse tiltag</t>
+  </si>
+  <si>
+    <t>Inddragelse af usunde fødevarer</t>
+  </si>
+  <si>
+    <t>Sorø</t>
+  </si>
+  <si>
+    <t>Spilafhængighed</t>
+  </si>
+  <si>
+    <t>Uholdbare fødevarer</t>
+  </si>
+  <si>
+    <t>Normafvigelse</t>
+  </si>
+  <si>
+    <t>Ekstraction af termisk kul</t>
+  </si>
+  <si>
+    <t>Stevns</t>
+  </si>
+  <si>
+    <t>Struer</t>
+  </si>
+  <si>
+    <t>Spil/lotteri</t>
+  </si>
+  <si>
+    <t>Ugesunde fødevarer</t>
+  </si>
+  <si>
+    <t>Svendborg</t>
+  </si>
+  <si>
+    <t>Ejendomserhvervelse</t>
+  </si>
+  <si>
+    <t>Klimaudfordringer og omstilling</t>
+  </si>
+  <si>
+    <t>Klimarelaterede forhold</t>
+  </si>
+  <si>
+    <t>Harmful environmental practices</t>
+  </si>
+  <si>
+    <t>Våbenproduktion og tilvejebringelse af sikkerhedstjenester til bosættelser</t>
+  </si>
+  <si>
+    <t>Våben</t>
+  </si>
+  <si>
+    <t>Krontroversielle våben</t>
+  </si>
+  <si>
+    <t>OBS! SKAL BLIVE TIL TRE</t>
+  </si>
+  <si>
+    <t>Syddjurs</t>
+  </si>
+  <si>
+    <t>Eksklusionsårsager:</t>
+  </si>
+  <si>
+    <t>Miljøpåvirkninger</t>
+  </si>
+  <si>
+    <t>Fald i biodiversitet</t>
+  </si>
+  <si>
+    <t>Deltagelse i krydstogtskibe</t>
+  </si>
+  <si>
+    <t>Ejendomsopkøb i konflikt med internationale normer</t>
+  </si>
+  <si>
+    <t>Uacceptabel landepolitik</t>
+  </si>
+  <si>
+    <t>Engagement i kontroversielle våbenproduktion</t>
+  </si>
+  <si>
+    <t>Står to gange, derfor fjernet den ene</t>
+  </si>
+  <si>
+    <t>Forskning/produktion af usunde fødevarer</t>
+  </si>
+  <si>
+    <t>Sønderborg</t>
+  </si>
+  <si>
+    <t>Thisted</t>
+  </si>
+  <si>
+    <t>Investeringsaktivitet i flyselskaber</t>
+  </si>
+  <si>
+    <t>Negative indvirkninger på samfund</t>
+  </si>
+  <si>
+    <t>Tårnby</t>
+  </si>
+  <si>
+    <t>Tønder</t>
+  </si>
+  <si>
+    <t>Inddragelse i usunde fødevarer</t>
+  </si>
+  <si>
+    <t>Inddragelse i sigaretprodukter</t>
+  </si>
+  <si>
+    <t>Tobak</t>
+  </si>
+  <si>
+    <t>Levering af tjenester til bevaringsområder</t>
+  </si>
+  <si>
+    <t>Støtte til tjenester i besættelsesområder</t>
+  </si>
+  <si>
+    <t>Levering af sikkerhedstjenester til bevaringsområder</t>
+  </si>
+  <si>
+    <t>Levering af sikkerhedstjenester til besættelsesområder</t>
+  </si>
+  <si>
+    <t>Udforskning af termisk kul</t>
+  </si>
+  <si>
+    <t>Problematikker ved landepolitik</t>
+  </si>
+  <si>
+    <t>Vallensbæk</t>
+  </si>
+  <si>
+    <t>Produkter involveret i tobaksdetailhandel</t>
+  </si>
+  <si>
+    <t>Udtømning af termisk kul</t>
+  </si>
+  <si>
+    <t>Varde</t>
+  </si>
+  <si>
+    <t>God ledelsespraksis og normbrud</t>
+  </si>
+  <si>
+    <t>Ejendomsovertagelser</t>
+  </si>
+  <si>
+    <t>Ejendomopkøb</t>
+  </si>
+  <si>
+    <t>Menneskerettigheder og sociale spørgsmål</t>
+  </si>
+  <si>
+    <t>Klimaforpligtelser og manglende ambitioner</t>
+  </si>
+  <si>
+    <t>Landet har ikke en tilfredsstillende tilgang til regeringsførelse og forvaltningspraksis</t>
+  </si>
+  <si>
+    <t>Vejle</t>
+  </si>
+  <si>
+    <t>Menneskerettighedskrænkelser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menneskerettigheder </t>
+  </si>
+  <si>
+    <t>Vesthimmerland</t>
+  </si>
+  <si>
+    <t>Emerging Markets statsobligationer uden ESG-krav</t>
+  </si>
+  <si>
+    <t>Emerging Markets statsobligationer, som ikke lever op til ESG-krav</t>
+  </si>
+  <si>
+    <t>Regeringsførelse og forvaltningspraksis vurderet som utilfredsstillende</t>
+  </si>
+  <si>
+    <t>Viborg</t>
+  </si>
+  <si>
+    <t>Krænkelse af menneskerettigheder</t>
+  </si>
+  <si>
+    <t>Vordingborg</t>
+  </si>
+  <si>
+    <t>Ærø</t>
   </si>
 </sst>
 </file>
@@ -344,7 +1001,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="60">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +1110,252 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E1FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73B7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA6EFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0FF53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF5A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C8AFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC78DFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF14F7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4582"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72B9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0085FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBAE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAF1FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6FFD7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFFD2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7EEFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE6F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA9CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF54ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CB7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4C7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90FF8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9800"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB9D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF79D3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6AFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBFFCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEAD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDDEFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF31ECE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1BFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF73A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73FDD6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFFF8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEAF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -466,7 +1369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -481,7 +1384,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -495,6 +1397,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,16 +1446,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFBA4"/>
-      <color rgb="FFFCA4D2"/>
-      <color rgb="FFC2FF6B"/>
-      <color rgb="FF93E3FF"/>
-      <color rgb="FFFF9BA3"/>
-      <color rgb="FFBEFFFD"/>
-      <color rgb="FF7ED2FF"/>
-      <color rgb="FFFCBB0D"/>
-      <color rgb="FF00F7C7"/>
-      <color rgb="FF968CFF"/>
+      <color rgb="FFFFEAF0"/>
+      <color rgb="FFDFFF8D"/>
+      <color rgb="FF73FDD6"/>
+      <color rgb="FFFF73A3"/>
+      <color rgb="FF1BFF00"/>
+      <color rgb="FF31ECE6"/>
+      <color rgb="FF000000"/>
+      <color rgb="FFEDDEFF"/>
+      <color rgb="FFFFFF9F"/>
+      <color rgb="FFFFEAD9"/>
     </mruColors>
   </colors>
   <extLst>
@@ -823,21 +1766,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A186330-B0A1-1343-838C-A75F9940ACE1}">
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -847,7 +1790,9 @@
       <c r="C1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="27" t="s">
+        <v>234</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -860,7 +1805,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -877,7 +1822,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -898,7 +1843,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -919,7 +1864,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -936,7 +1881,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -957,7 +1902,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -978,7 +1923,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -999,7 +1944,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1016,7 +1961,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1980,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1052,7 +1997,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +2016,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1088,7 +2033,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1107,7 +2052,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1124,7 +2069,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
@@ -1145,7 +2090,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1162,7 +2107,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +2126,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1198,13 +2143,13 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1217,7 +2162,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1234,7 +2179,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -1255,7 +2200,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1272,7 +2217,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>11</v>
       </c>
@@ -1293,7 +2238,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -1314,7 +2259,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
@@ -1323,12 +2268,20 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>12</v>
       </c>
@@ -1337,8 +2290,11 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>12</v>
       </c>
@@ -1347,26 +2303,40 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>31</v>
       </c>
@@ -1377,8 +2347,11 @@
         <v>33</v>
       </c>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
@@ -1389,14 +2362,20 @@
         <v>33</v>
       </c>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>31</v>
       </c>
@@ -1407,8 +2386,11 @@
         <v>47</v>
       </c>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>31</v>
       </c>
@@ -1419,8 +2401,11 @@
         <v>47</v>
       </c>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>31</v>
       </c>
@@ -1430,8 +2415,12 @@
       <c r="C38" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>31</v>
       </c>
@@ -1441,577 +2430,4262 @@
       <c r="C39" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>49</v>
+      <c r="B42" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>65</v>
+      <c r="B43" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
+      <c r="B45" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>82</v>
+      <c r="B46" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>40</v>
+      <c r="B48" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>42</v>
+      <c r="B49" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>45</v>
+      <c r="B50" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>48</v>
+      <c r="B51" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>64</v>
+      <c r="B52" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>77</v>
+      <c r="B54" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>73</v>
+      <c r="B56" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>19</v>
+      <c r="B57" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>23</v>
+      <c r="B58" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>75</v>
+      <c r="B60" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>17</v>
+      <c r="B61" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>21</v>
+      <c r="B62" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>7</v>
+        <v>222</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>36</v>
+        <v>251</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>12</v>
+        <v>244</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
-        <v>53</v>
+        <v>250</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>2</v>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="21" t="s">
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="21" t="s">
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="21" t="s">
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="24" t="s">
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="24" t="s">
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="24" t="s">
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="26" t="s">
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="27" t="s">
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="17"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="16"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="13"/>
-      <c r="C117" s="23"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B163" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C163" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D163" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B171" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C171" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D171" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B172" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C172" s="35"/>
+      <c r="D172" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B173" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C173" s="35"/>
+      <c r="D173" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B177" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D177" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B179" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C179" s="36"/>
+      <c r="D179" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B180" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C180" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D180" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B181" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C181" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D181" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B182" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C182" s="36"/>
+      <c r="D182" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B183" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C183" s="36"/>
+      <c r="D183" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B187" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C187" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D187" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B189" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C189" s="38"/>
+      <c r="D189" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B190" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C190" s="38"/>
+      <c r="D190" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B191" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C191" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D191" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B205" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205" s="39"/>
+      <c r="D205" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B206" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C206" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D206" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B207" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C207" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D207" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B208" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C208" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D208" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B216" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C216" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D216" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B218" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C218" s="41"/>
+      <c r="D218" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B222" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C222" s="42"/>
+      <c r="D222" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B223" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C223" s="42"/>
+      <c r="D223" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B224" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C224" s="42"/>
+      <c r="D224" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B225" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C225" s="42"/>
+      <c r="D225" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B229" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C229" s="43"/>
+      <c r="D229" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B231" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C231" s="44"/>
+      <c r="D231" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B232" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C232" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D232" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B233" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C233" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D233" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B234" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C234" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D234" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B235" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C235" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D235" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B236" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C236" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D236" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B238" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C238" s="45"/>
+      <c r="D238" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B242" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C242" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D242" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B243" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C243" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D243" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B244" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C244" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D244" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B245" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C245" s="46"/>
+      <c r="D245" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B246" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C246" s="46"/>
+      <c r="D246" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B248" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C248" s="47"/>
+      <c r="D248" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B256" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C256" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D256" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B260" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C260" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D260" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B262" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C262" s="50"/>
+      <c r="D262" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B264" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C264" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D264" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B265" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C265" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D265" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B267" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C267" s="52"/>
+      <c r="D267" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B271" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C271" s="53"/>
+      <c r="D271" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B272" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C272" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D272" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B274" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C274" s="54"/>
+      <c r="D274" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B275" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C275" s="54"/>
+      <c r="D275" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B277" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C277" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D277" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B285" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C285" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D285" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B287" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C287" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="D287" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B288" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C288" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D288" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B289" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="C289" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D289" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B295" s="5"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B297" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C297" s="58"/>
+      <c r="D297" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B298" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C298" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D298" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B300" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C300" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D300" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B301" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C301" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D301" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B303" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C303" s="60"/>
+      <c r="D303" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B305" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C305" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="D305" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B306" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C306" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D306" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B307" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="C307" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D307" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B309" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C309" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D309" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B310" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C310" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D310" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B316" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C316" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D316" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B317" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C317" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D317" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B318" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C318" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D318" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B319" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C319" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D319" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B320" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C320" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D320" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B322" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C322" s="63"/>
+      <c r="D322" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B323" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="C323" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="D323" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+      <c r="G323" s="1"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B324" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="C324" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D324" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B325" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="C325" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D325" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B326" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="C326" s="63"/>
+      <c r="D326" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B327" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C327" s="63"/>
+      <c r="D327" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B329" s="5"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="B331" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="C331" s="64"/>
+      <c r="D331" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B333" s="5"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B335" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C335" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D335" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B336" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C336" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D336" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B337" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C337" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="D337" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B338" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C338" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D338" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B339" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C339" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D339" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B341" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="C341" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="D341" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B342" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="C342" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D342" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B344" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C344" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D344" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B345" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C345" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="D345" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B346" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C346" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D346" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B347" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C347" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D347" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B349" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C349" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D349" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B351" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C351" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="D351" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="B353" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="C353" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="D353" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="B354" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="C354" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="D354" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A356" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="B356" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="C356" s="67"/>
+      <c r="D356" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A358" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A360" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B360" s="5"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E360" s="1"/>
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2023,14 +6697,14 @@
       <selection activeCell="B4" sqref="B4:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2050,7 +6724,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -2076,7 +6750,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="E3" s="1"/>
       <c r="H3" s="1"/>
@@ -2091,7 +6765,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
         <v>31</v>
@@ -2117,7 +6791,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
         <v>31</v>
@@ -2143,7 +6817,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2163,7 +6837,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="12" t="s">
         <v>31</v>
@@ -2186,7 +6860,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
         <v>31</v>
@@ -2209,7 +6883,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
         <v>31</v>
@@ -2232,7 +6906,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
         <v>31</v>
@@ -2255,12 +6929,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2278,7 +6952,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="E12" s="1"/>
       <c r="I12" s="1"/>
@@ -2292,7 +6966,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>31</v>
@@ -2315,7 +6989,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>31</v>
@@ -2338,7 +7012,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="E15" s="1"/>
       <c r="I15" s="1"/>
@@ -2352,7 +7026,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
         <v>31</v>
@@ -2378,7 +7052,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="12" t="s">
         <v>31</v>
@@ -2404,7 +7078,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2421,7 +7095,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="12" t="s">
         <v>31</v>
@@ -2447,7 +7121,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="12" t="s">
         <v>31</v>
@@ -2473,7 +7147,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="12" t="s">
         <v>31</v>
@@ -2497,7 +7171,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="12" t="s">
         <v>31</v>
@@ -2523,7 +7197,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="12" t="s">
         <v>31</v>
@@ -2547,7 +7221,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="12" t="s">
         <v>31</v>
@@ -2573,12 +7247,12 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2596,7 +7270,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="12" t="s">
         <v>31</v>
@@ -2619,7 +7293,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="12" t="s">
         <v>31</v>
@@ -2644,7 +7318,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="12" t="s">
         <v>31</v>
@@ -2670,7 +7344,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="12" t="s">
         <v>31</v>
@@ -2696,7 +7370,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2713,7 +7387,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="12" t="s">
         <v>31</v>
@@ -2739,7 +7413,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="12" t="s">
         <v>31</v>
@@ -2765,7 +7439,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="12" t="s">
         <v>31</v>
@@ -2791,7 +7465,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2808,7 +7482,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="12" t="s">
         <v>31</v>
@@ -2834,7 +7508,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2854,7 +7528,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="12" t="s">
         <v>31</v>
@@ -2880,7 +7554,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2900,7 +7574,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="12" t="s">
         <v>31</v>
@@ -2926,7 +7600,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2946,7 +7620,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="12" t="s">
         <v>31</v>
@@ -2970,7 +7644,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2987,7 +7661,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -3004,7 +7678,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -3021,7 +7695,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3041,7 +7715,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3061,7 +7735,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3081,7 +7755,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3101,7 +7775,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3121,7 +7795,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3141,7 +7815,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3161,7 +7835,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3181,7 +7855,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3201,7 +7875,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3221,7 +7895,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3241,7 +7915,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3261,7 +7935,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3281,7 +7955,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3301,7 +7975,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3321,7 +7995,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3341,7 +8015,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3361,7 +8035,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3381,7 +8055,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3401,7 +8075,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3421,7 +8095,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3441,7 +8115,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3461,7 +8135,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3481,7 +8155,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3501,7 +8175,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3521,7 +8195,7 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3541,7 +8215,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3561,7 +8235,7 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3581,7 +8255,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3601,7 +8275,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3621,7 +8295,7 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3641,7 +8315,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3661,7 +8335,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3681,7 +8355,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3701,7 +8375,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3721,7 +8395,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3741,7 +8415,7 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3761,7 +8435,7 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3781,7 +8455,7 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3801,7 +8475,7 @@
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3821,7 +8495,7 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3841,7 +8515,7 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3861,7 +8535,7 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3881,7 +8555,7 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3901,7 +8575,7 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3921,7 +8595,7 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3941,7 +8615,7 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3961,7 +8635,7 @@
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3981,7 +8655,7 @@
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4001,7 +8675,7 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4021,7 +8695,7 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4041,7 +8715,7 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4061,7 +8735,7 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4081,7 +8755,7 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4101,7 +8775,7 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4121,7 +8795,7 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4141,7 +8815,7 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4161,7 +8835,7 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4181,7 +8855,7 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4201,7 +8875,7 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4221,7 +8895,7 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4241,7 +8915,7 @@
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4261,7 +8935,7 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4281,7 +8955,7 @@
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4301,7 +8975,7 @@
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4321,7 +8995,7 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4341,7 +9015,7 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4361,7 +9035,7 @@
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4381,7 +9055,7 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4401,7 +9075,7 @@
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4421,7 +9095,7 @@
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4441,7 +9115,7 @@
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4461,7 +9135,7 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4481,7 +9155,7 @@
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4501,7 +9175,7 @@
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4521,7 +9195,7 @@
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4541,7 +9215,7 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4561,7 +9235,7 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4581,7 +9255,7 @@
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4601,7 +9275,7 @@
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4621,7 +9295,7 @@
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4654,14 +9328,14 @@
       <selection activeCell="B4" sqref="B4:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4684,7 +9358,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4713,7 +9387,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4733,13 +9407,13 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4758,7 +9432,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4781,7 +9455,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -4808,7 +9482,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4831,7 +9505,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -4856,7 +9530,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4879,7 +9553,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
         <v>34</v>
@@ -4887,7 +9561,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -4904,13 +9578,13 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4927,7 +9601,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
         <v>35</v>
@@ -4935,7 +9609,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="18"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -4952,13 +9626,13 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -4975,9 +9649,9 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4987,7 +9661,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -5004,13 +9678,13 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -5027,7 +9701,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
         <v>37</v>
@@ -5052,7 +9726,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5075,7 +9749,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
         <v>38</v>
@@ -5100,7 +9774,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5123,7 +9797,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
         <v>39</v>
@@ -5148,7 +9822,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5171,7 +9845,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="11" t="s">
         <v>12</v>
@@ -5198,7 +9872,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="11" t="s">
         <v>12</v>
@@ -5225,7 +9899,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5248,7 +9922,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5271,7 +9945,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5294,7 +9968,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5317,7 +9991,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5340,7 +10014,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5363,7 +10037,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5386,7 +10060,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5409,7 +10083,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5432,7 +10106,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5455,7 +10129,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5478,7 +10152,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5514,14 +10188,14 @@
       <selection activeCell="B4" sqref="B4:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5532,39 +10206,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -5572,9 +10246,9 @@
         <v>13</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -5582,26 +10256,26 @@
         <v>14</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -5610,37 +10284,37 @@
       <c r="D11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5648,18 +10322,18 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -5667,8 +10341,8 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="24" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5678,8 +10352,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5687,12 +10361,12 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -5700,22 +10374,22 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="23"/>
+      <c r="D28" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Kontrolforsøg_ai_text_samlet.xlsx
+++ b/src/Kontrolforsøg_ai_text_samlet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anja\OneDrive - Gravercentret\Dokumenter\Python_projekter\kommune_investering\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3E9CB2-A1C2-4FC9-93D3-D55586F59ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A1A45A-F5FD-4573-A7D9-5B0B11D45D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4169F276-BD1B-0944-B9D3-5A0FC0009D7D}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="331">
   <si>
     <t xml:space="preserve">Fjern </t>
   </si>
@@ -949,6 +949,78 @@
   </si>
   <si>
     <t>Ærø</t>
+  </si>
+  <si>
+    <t>Uldse fødevarer</t>
+  </si>
+  <si>
+    <t>Israel/Palestina konflikt</t>
+  </si>
+  <si>
+    <t>Normvigilens vedrørende menneskerettigheder</t>
+  </si>
+  <si>
+    <t>Konflikter relateret til Israel/Palestina</t>
+  </si>
+  <si>
+    <t>Fossile brændsler (oliesk Sands, thermal coal extraction)</t>
+  </si>
+  <si>
+    <t>Fossile brændstoffer</t>
+  </si>
+  <si>
+    <t>Udtvinding af termisk kul</t>
+  </si>
+  <si>
+    <t>Udvinding af termisk kul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normviolationer relateret til menneskerettigheder </t>
+  </si>
+  <si>
+    <t>Israel/Palestina konflikten</t>
+  </si>
+  <si>
+    <t>Israel/Palestina</t>
+  </si>
+  <si>
+    <t>Israel/Palestina-konflikten</t>
+  </si>
+  <si>
+    <t>Problematikker vedrørende Israel/Palestina</t>
+  </si>
+  <si>
+    <t>Brud på grundlænde arbejdstagerrettigheder</t>
+  </si>
+  <si>
+    <t>Brud på grundlæggende arbejdstagerrettigheder</t>
+  </si>
+  <si>
+    <t>Biodiversitet og biodiversitetsimpakter</t>
+  </si>
+  <si>
+    <t>Udtvungne fødevarer</t>
+  </si>
+  <si>
+    <t>Normviolationer vedrørende menneskerettigheder</t>
+  </si>
+  <si>
+    <t>Overholdelse af EU-sanktioner.</t>
+  </si>
+  <si>
+    <t>Ejendomsopkøb og problemer relateret til Israel/Palestina.</t>
+  </si>
+  <si>
+    <t>Uddvinding af termisk kul</t>
+  </si>
+  <si>
+    <t>Misdædelige miljøpraksis</t>
+  </si>
+  <si>
+    <t>Skadelig miljøpraksis</t>
+  </si>
+  <si>
+    <t>Overtredelse af EU-sanktioner.</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1073,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="60">
+  <fills count="61">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,6 +1428,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1369,7 +1447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1438,6 +1516,7 @@
     <xf numFmtId="0" fontId="1" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1766,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A186330-B0A1-1343-838C-A75F9940ACE1}">
-  <dimension ref="A1:O361"/>
+  <dimension ref="A1:O388"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C362" sqref="C362"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2783,14 +2862,12 @@
         <v>31</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>180</v>
+        <v>319</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="D61" s="27"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -2800,7 +2877,7 @@
         <v>31</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>50</v>
@@ -2813,10 +2890,16 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="27"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -2825,13 +2908,15 @@
       <c r="A64" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>51</v>
+      <c r="B64" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -2840,13 +2925,13 @@
       <c r="A65" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>82</v>
+      <c r="B65" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="D65" s="27"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -2855,15 +2940,13 @@
       <c r="A66" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>112</v>
+      <c r="B66" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>91</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D66" s="27"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -2872,15 +2955,13 @@
       <c r="A67" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>153</v>
+      <c r="B67" s="14" t="s">
+        <v>318</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>91</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D67" s="27"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -2889,15 +2970,13 @@
       <c r="A68" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>167</v>
+      <c r="B68" s="14" t="s">
+        <v>316</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>91</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D68" s="27"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -2906,15 +2985,13 @@
       <c r="A69" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>194</v>
+      <c r="B69" s="14" t="s">
+        <v>317</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>91</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D69" s="27"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -2923,32 +3000,22 @@
       <c r="A70" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>222</v>
+      <c r="B70" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>91</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D70" s="27"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -2958,14 +3025,12 @@
         <v>31</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -2975,14 +3040,12 @@
         <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2992,13 +3055,13 @@
         <v>31</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3009,23 +3072,31 @@
         <v>31</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>277</v>
+        <v>153</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="A76" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3035,12 +3106,14 @@
         <v>31</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -3050,12 +3123,14 @@
         <v>31</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -3065,12 +3140,14 @@
         <v>31</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -3080,12 +3157,14 @@
         <v>31</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -3095,12 +3174,14 @@
         <v>31</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -3110,12 +3191,14 @@
         <v>31</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -3124,13 +3207,15 @@
       <c r="A83" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="14" t="s">
-        <v>77</v>
+      <c r="B83" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -3140,12 +3225,12 @@
         <v>31</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>85</v>
+        <v>323</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D84" s="27"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -3155,26 +3240,20 @@
         <v>31</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D85" s="27"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -3185,7 +3264,7 @@
         <v>31</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>20</v>
@@ -3200,14 +3279,12 @@
         <v>31</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -3217,14 +3294,12 @@
         <v>31</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -3234,14 +3309,12 @@
         <v>31</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -3251,22 +3324,26 @@
         <v>31</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="A92" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -3276,11 +3353,11 @@
       <c r="A93" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>75</v>
+      <c r="B93" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3292,10 +3369,10 @@
         <v>31</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3307,10 +3384,10 @@
         <v>31</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3318,9 +3395,15 @@
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="A96" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3331,10 +3414,10 @@
         <v>31</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3342,10 +3425,18 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="A98" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -3355,21 +3446,31 @@
         <v>31</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D99" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="A100" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -3379,29 +3480,23 @@
         <v>31</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D101" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -3411,14 +3506,12 @@
         <v>31</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>91</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -3428,34 +3521,34 @@
         <v>31</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>236</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="A105" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3463,9 +3556,15 @@
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="A107" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -3476,12 +3575,12 @@
         <v>31</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="27" t="s">
-        <v>236</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -3496,11 +3595,15 @@
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
+      <c r="A110" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -3516,200 +3619,249 @@
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
-        <v>7</v>
+      <c r="A112" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="A113" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="1"/>
+      <c r="A114" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
+      <c r="A115" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="D115" s="27"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="1"/>
+      <c r="A116" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D116" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
+      <c r="A117" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="D117" s="27"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="1"/>
+      <c r="A118" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D118" s="27"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="A119" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D119" s="27"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D120" s="1"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="27"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="A121" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D121" s="27"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="1"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="27"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D123" s="27"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="1"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="27"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D125" s="27"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
+      <c r="A127" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="C127" s="68" t="s">
+        <v>314</v>
+      </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" s="1"/>
+      <c r="A128" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="68" t="s">
+        <v>327</v>
+      </c>
+      <c r="C128" s="68" t="s">
+        <v>314</v>
+      </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="11" t="s">
-        <v>12</v>
+      <c r="A129" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C129" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="A130" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -3717,26 +3869,30 @@
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="19" t="s">
-        <v>53</v>
+      <c r="A131" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C131" s="1"/>
+        <v>330</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="19" t="s">
-        <v>53</v>
+      <c r="A132" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C132" s="1"/>
+        <v>328</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -3752,11 +3908,11 @@
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
-        <v>2</v>
+      <c r="A134" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3765,14 +3921,16 @@
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
-        <v>2</v>
+      <c r="A135" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="D135" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -3787,39 +3945,31 @@
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137" s="1"/>
+      <c r="A137" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="20" t="s">
-        <v>3</v>
+      <c r="A139" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3838,7 +3988,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3857,13 +4007,11 @@
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C143" s="1"/>
+      <c r="A143" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -3879,11 +4027,15 @@
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
+      <c r="A145" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B145" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="C145" s="68" t="s">
+        <v>314</v>
+      </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -3899,41 +4051,35 @@
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="23" t="s">
-        <v>57</v>
+      <c r="A147" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C149" s="1"/>
+      <c r="A149" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -3949,13 +4095,11 @@
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C151" s="1"/>
+      <c r="A151" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -3971,8 +4115,8 @@
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="26" t="s">
-        <v>59</v>
+      <c r="A153" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3982,7 +4126,7 @@
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="16"/>
+      <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3991,19 +4135,25 @@
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B155" s="13"/>
-      <c r="C155" s="5"/>
+      <c r="A155" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="A156" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4011,21 +4161,21 @@
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="A158" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4033,14 +4183,14 @@
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A159" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -4055,21 +4205,25 @@
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A161" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="A162" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4077,25 +4231,21 @@
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B163" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C163" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D163" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="A164" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4103,21 +4253,27 @@
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A165" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="A166" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4125,43 +4281,41 @@
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="A168" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="A170" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4169,55 +4323,41 @@
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B171" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C171" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D171" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B172" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C172" s="35"/>
-      <c r="D172" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A172" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B173" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C173" s="35"/>
-      <c r="D173" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="A174" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4225,21 +4365,27 @@
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A175" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="A176" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4247,25 +4393,21 @@
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B177" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C177" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D177" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+      <c r="A178" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4273,164 +4415,130 @@
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B179" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C179" s="36"/>
-      <c r="D179" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B180" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C180" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D180" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A180" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B181" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C181" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D181" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A181" s="16"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B182" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C182" s="36"/>
-      <c r="D182" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A182" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" s="13"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B183" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C183" s="36"/>
-      <c r="D183" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
+      <c r="A184" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
+      <c r="A186" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B187" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C187" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="D187" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
+      <c r="A188" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B189" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C189" s="38"/>
-      <c r="D189" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B190" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C190" s="38"/>
+      <c r="A190" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B190" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C190" s="34" t="s">
+        <v>97</v>
+      </c>
       <c r="D190" s="27" t="s">
         <v>91</v>
       </c>
@@ -4439,103 +4547,105 @@
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B191" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C191" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D191" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
+      <c r="A192" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
+      <c r="A194" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
+      <c r="A196" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
+      <c r="A198" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B198" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C198" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D198" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
+      <c r="A199" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B199" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C199" s="35"/>
       <c r="D199" s="27" t="s">
         <v>91</v>
       </c>
@@ -4544,83 +4654,85 @@
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
+      <c r="A200" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B200" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C200" s="35"/>
+      <c r="D200" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
+      <c r="A202" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
+      <c r="A204" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B204" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C204" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D204" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B205" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C205" s="39"/>
-      <c r="D205" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B206" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C206" s="39" t="s">
-        <v>22</v>
-      </c>
+      <c r="A206" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B206" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C206" s="36"/>
       <c r="D206" s="27" t="s">
         <v>91</v>
       </c>
@@ -4629,58 +4741,62 @@
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B207" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C207" s="39" t="s">
+      <c r="A207" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B207" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C207" s="36" t="s">
         <v>79</v>
       </c>
       <c r="D207" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E207" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B208" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C208" s="39" t="s">
-        <v>142</v>
+      <c r="A208" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B208" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C208" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="D208" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
+      <c r="A209" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B209" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C209" s="36"/>
+      <c r="D209" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
+      <c r="A210" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B210" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C210" s="36"/>
       <c r="D210" s="27" t="s">
         <v>91</v>
       </c>
@@ -4699,7 +4815,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -4720,11 +4836,15 @@
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
+      <c r="A214" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B214" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C214" s="37" t="s">
+        <v>126</v>
+      </c>
       <c r="D214" s="27" t="s">
         <v>91</v>
       </c>
@@ -4742,15 +4862,13 @@
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="B216" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C216" s="40" t="s">
-        <v>22</v>
-      </c>
+      <c r="A216" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B216" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C216" s="38"/>
       <c r="D216" s="27" t="s">
         <v>91</v>
       </c>
@@ -4759,22 +4877,30 @@
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
+      <c r="A217" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B217" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C217" s="38"/>
+      <c r="D217" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B218" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C218" s="41"/>
+      <c r="A218" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B218" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C218" s="38" t="s">
+        <v>131</v>
+      </c>
       <c r="D218" s="27" t="s">
         <v>91</v>
       </c>
@@ -4793,7 +4919,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -4814,13 +4940,11 @@
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B222" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C222" s="42"/>
+      <c r="A222" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
       <c r="D222" s="27" t="s">
         <v>91</v>
       </c>
@@ -4829,28 +4953,20 @@
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B223" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="C223" s="42"/>
-      <c r="D223" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B224" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C224" s="42"/>
+      <c r="A224" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
       <c r="D224" s="27" t="s">
         <v>91</v>
       </c>
@@ -4859,100 +4975,88 @@
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B225" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C225" s="42"/>
-      <c r="D225" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
+      <c r="A226" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
+      <c r="A228" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B229" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C229" s="43"/>
-      <c r="D229" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
+      <c r="A230" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B231" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C231" s="44"/>
-      <c r="D231" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B232" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C232" s="44" t="s">
-        <v>162</v>
-      </c>
+      <c r="A232" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B232" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C232" s="39"/>
       <c r="D232" s="27" t="s">
         <v>91</v>
       </c>
@@ -4961,14 +5065,14 @@
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B233" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="C233" s="44" t="s">
-        <v>81</v>
+      <c r="A233" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B233" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C233" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="D233" s="27" t="s">
         <v>91</v>
@@ -4978,136 +5082,126 @@
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B234" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C234" s="44" t="s">
-        <v>166</v>
+      <c r="A234" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B234" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C234" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="D234" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E234" s="1"/>
+      <c r="E234" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B235" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="C235" s="44" t="s">
-        <v>169</v>
+      <c r="A235" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B235" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C235" s="39" t="s">
+        <v>142</v>
       </c>
       <c r="D235" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E235" s="1"/>
+      <c r="E235" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B236" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="C236" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D236" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
+      <c r="A237" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B238" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C238" s="45"/>
-      <c r="D238" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
+      <c r="A239" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
-      <c r="D240" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
+      <c r="A241" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B242" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="C242" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="D242" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B243" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C243" s="46" t="s">
+      <c r="A243" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B243" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C243" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D243" s="27" t="s">
@@ -5118,30 +5212,22 @@
       <c r="G243" s="1"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B244" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C244" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D244" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B245" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="C245" s="46"/>
+      <c r="A245" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B245" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C245" s="41"/>
       <c r="D245" s="27" t="s">
         <v>91</v>
       </c>
@@ -5150,59 +5236,59 @@
       <c r="G245" s="1"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A246" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B246" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="C246" s="46"/>
-      <c r="D246" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
+      <c r="A247" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B248" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C248" s="47"/>
-      <c r="D248" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
+      <c r="A249" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B249" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C249" s="42"/>
+      <c r="D249" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B250" s="5"/>
-      <c r="C250" s="5"/>
+      <c r="A250" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B250" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C250" s="42"/>
       <c r="D250" s="27" t="s">
         <v>91</v>
       </c>
@@ -5211,20 +5297,28 @@
       <c r="G250" s="1"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
+      <c r="A251" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B251" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C251" s="42"/>
+      <c r="D251" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B252" s="5"/>
-      <c r="C252" s="5"/>
+      <c r="A252" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B252" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C252" s="42"/>
       <c r="D252" s="27" t="s">
         <v>91</v>
       </c>
@@ -5243,7 +5337,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -5264,15 +5358,13 @@
       <c r="G255" s="1"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="B256" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="C256" s="48" t="s">
-        <v>79</v>
-      </c>
+      <c r="A256" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B256" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C256" s="43"/>
       <c r="D256" s="27" t="s">
         <v>91</v>
       </c>
@@ -5290,11 +5382,13 @@
       <c r="G257" s="1"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B258" s="5"/>
-      <c r="C258" s="5"/>
+      <c r="A258" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B258" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C258" s="44"/>
       <c r="D258" s="27" t="s">
         <v>91</v>
       </c>
@@ -5303,23 +5397,31 @@
       <c r="G258" s="1"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
+      <c r="A259" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B259" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C259" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D259" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B260" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="C260" s="49" t="s">
-        <v>196</v>
+      <c r="A260" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B260" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C260" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="D260" s="27" t="s">
         <v>91</v>
@@ -5329,22 +5431,32 @@
       <c r="G260" s="1"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
+      <c r="A261" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B261" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C261" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D261" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="B262" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C262" s="50"/>
+      <c r="A262" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B262" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C262" s="44" t="s">
+        <v>169</v>
+      </c>
       <c r="D262" s="27" t="s">
         <v>91</v>
       </c>
@@ -5353,41 +5465,39 @@
       <c r="G262" s="1"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
+      <c r="A263" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B263" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C263" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D263" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="B264" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="C264" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D264" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="B265" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="C265" s="51" t="s">
-        <v>81</v>
-      </c>
+      <c r="A265" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B265" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C265" s="45"/>
       <c r="D265" s="27" t="s">
         <v>91</v>
       </c>
@@ -5405,13 +5515,11 @@
       <c r="G266" s="1"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="B267" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C267" s="52"/>
+      <c r="A267" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
       <c r="D267" s="27" t="s">
         <v>91</v>
       </c>
@@ -5429,11 +5537,15 @@
       <c r="G268" s="1"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B269" s="5"/>
-      <c r="C269" s="5"/>
+      <c r="A269" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B269" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C269" s="46" t="s">
+        <v>178</v>
+      </c>
       <c r="D269" s="27" t="s">
         <v>91</v>
       </c>
@@ -5442,22 +5554,32 @@
       <c r="G269" s="1"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
+      <c r="A270" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B270" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C270" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D270" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="B271" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C271" s="53"/>
+      <c r="A271" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B271" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C271" s="46" t="s">
+        <v>79</v>
+      </c>
       <c r="D271" s="27" t="s">
         <v>91</v>
       </c>
@@ -5466,15 +5588,13 @@
       <c r="G271" s="1"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A272" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="B272" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="C272" s="53" t="s">
-        <v>206</v>
-      </c>
+      <c r="A272" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B272" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C272" s="46"/>
       <c r="D272" s="27" t="s">
         <v>91</v>
       </c>
@@ -5483,37 +5603,37 @@
       <c r="G272" s="1"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
+      <c r="A273" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B273" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C273" s="46"/>
+      <c r="D273" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A274" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="B274" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C274" s="54"/>
-      <c r="D274" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A275" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="B275" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="C275" s="54"/>
+      <c r="A275" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B275" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C275" s="47"/>
       <c r="D275" s="27" t="s">
         <v>91</v>
       </c>
@@ -5531,15 +5651,11 @@
       <c r="G276" s="1"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="B277" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="C277" s="55" t="s">
-        <v>81</v>
-      </c>
+      <c r="A277" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
       <c r="D277" s="27" t="s">
         <v>91</v>
       </c>
@@ -5558,7 +5674,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -5580,7 +5696,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -5601,11 +5717,15 @@
       <c r="G282" s="1"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B283" s="5"/>
-      <c r="C283" s="5"/>
+      <c r="A283" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B283" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C283" s="48" t="s">
+        <v>79</v>
+      </c>
       <c r="D283" s="27" t="s">
         <v>91</v>
       </c>
@@ -5623,15 +5743,11 @@
       <c r="G284" s="1"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="B285" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="C285" s="56" t="s">
-        <v>216</v>
-      </c>
+      <c r="A285" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
       <c r="D285" s="27" t="s">
         <v>91</v>
       </c>
@@ -5649,14 +5765,14 @@
       <c r="G286" s="1"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="B287" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="C287" s="57" t="s">
-        <v>219</v>
+      <c r="A287" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B287" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C287" s="49" t="s">
+        <v>196</v>
       </c>
       <c r="D287" s="27" t="s">
         <v>91</v>
@@ -5666,32 +5782,22 @@
       <c r="G287" s="1"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A288" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="B288" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="C288" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D288" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A289" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="B289" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="C289" s="57" t="s">
-        <v>81</v>
-      </c>
+      <c r="A289" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B289" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C289" s="50"/>
       <c r="D289" s="27" t="s">
         <v>91</v>
       </c>
@@ -5709,11 +5815,15 @@
       <c r="G290" s="1"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B291" s="5"/>
-      <c r="C291" s="5"/>
+      <c r="A291" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B291" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C291" s="51" t="s">
+        <v>79</v>
+      </c>
       <c r="D291" s="27" t="s">
         <v>91</v>
       </c>
@@ -5722,83 +5832,85 @@
       <c r="G291" s="1"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
+      <c r="A292" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B292" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C292" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D292" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A293" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B293" s="5"/>
-      <c r="C293" s="5"/>
-      <c r="D293" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
+      <c r="A294" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B294" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C294" s="52"/>
+      <c r="D294" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A295" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B295" s="5"/>
-      <c r="C295" s="5"/>
-      <c r="D295" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
+      <c r="A296" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B296" s="5"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A297" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="B297" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C297" s="58"/>
-      <c r="D297" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A298" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="B298" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="C298" s="58" t="s">
-        <v>228</v>
-      </c>
+      <c r="A298" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B298" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C298" s="53"/>
       <c r="D298" s="27" t="s">
         <v>91</v>
       </c>
@@ -5807,41 +5919,39 @@
       <c r="G298" s="1"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
-      <c r="D299" s="1"/>
+      <c r="A299" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B299" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C299" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D299" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A300" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="B300" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="C300" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D300" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A301" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="B301" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="C301" s="59" t="s">
-        <v>228</v>
-      </c>
+      <c r="A301" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B301" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C301" s="54"/>
       <c r="D301" s="27" t="s">
         <v>91</v>
       </c>
@@ -5850,127 +5960,107 @@
       <c r="G301" s="1"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
+      <c r="A302" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B302" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C302" s="54"/>
+      <c r="D302" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A303" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="B303" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="C303" s="60"/>
-      <c r="D303" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
-      <c r="D304" s="1"/>
+      <c r="A304" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B304" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C304" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D304" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A305" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="B305" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="C305" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="D305" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A306" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="B306" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="C306" s="61" t="s">
-        <v>79</v>
-      </c>
+      <c r="A306" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B306" s="5"/>
+      <c r="C306" s="5"/>
       <c r="D306" s="27" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A307" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="B307" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="C307" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D307" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
-      <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
+      <c r="A308" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A309" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="B309" s="62" t="s">
-        <v>246</v>
-      </c>
-      <c r="C309" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="D309" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A310" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="B310" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="C310" s="62" t="s">
-        <v>228</v>
-      </c>
+      <c r="A310" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
       <c r="D310" s="27" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
@@ -5986,13 +6076,17 @@
       <c r="G311" s="1"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A312" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B312" s="5"/>
-      <c r="C312" s="5"/>
+      <c r="A312" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B312" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C312" s="56" t="s">
+        <v>216</v>
+      </c>
       <c r="D312" s="27" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
@@ -6008,111 +6102,95 @@
       <c r="G313" s="1"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A314" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B314" s="5"/>
-      <c r="C314" s="5"/>
+      <c r="A314" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B314" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C314" s="57" t="s">
+        <v>219</v>
+      </c>
       <c r="D314" s="27" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
-      <c r="D315" s="1"/>
+      <c r="A315" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B315" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C315" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D315" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A316" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="B316" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="C316" s="29" t="s">
-        <v>22</v>
+      <c r="A316" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B316" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="C316" s="57" t="s">
+        <v>81</v>
       </c>
       <c r="D316" s="27" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A317" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="B317" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="C317" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="D317" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A318" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="B318" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C318" s="29" t="s">
-        <v>259</v>
-      </c>
+      <c r="A318" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B318" s="5"/>
+      <c r="C318" s="5"/>
       <c r="D318" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>260</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A319" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="B319" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C319" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D319" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>260</v>
-      </c>
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A320" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="B320" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C320" s="29" t="s">
-        <v>258</v>
-      </c>
+      <c r="A320" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
       <c r="D320" s="27" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
@@ -6128,166 +6206,162 @@
       <c r="G321" s="1"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A322" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B322" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="C322" s="63"/>
+      <c r="A322" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
       <c r="D322" s="27" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A323" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B323" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="C323" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="D323" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A324" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B324" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="C324" s="63" t="s">
-        <v>22</v>
-      </c>
+      <c r="A324" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B324" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C324" s="58"/>
       <c r="D324" s="27" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A325" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B325" s="63" t="s">
-        <v>267</v>
-      </c>
-      <c r="C325" s="63" t="s">
-        <v>79</v>
+      <c r="A325" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B325" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C325" s="58" t="s">
+        <v>228</v>
       </c>
       <c r="D325" s="27" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A326" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B326" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="C326" s="63"/>
-      <c r="D326" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A327" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B327" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="C327" s="63"/>
+      <c r="A327" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B327" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C327" s="59" t="s">
+        <v>79</v>
+      </c>
       <c r="D327" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A328" s="1"/>
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
+      <c r="A328" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B328" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C328" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D328" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A329" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B329" s="5"/>
-      <c r="C329" s="5"/>
-      <c r="D329" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
+      <c r="A330" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="B330" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C330" s="60"/>
+      <c r="D330" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A331" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="B331" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="C331" s="64"/>
-      <c r="D331" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
-      <c r="D332" s="1"/>
+      <c r="A332" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B332" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C332" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="D332" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A333" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B333" s="5"/>
-      <c r="C333" s="5"/>
+      <c r="A333" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B333" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C333" s="61" t="s">
+        <v>79</v>
+      </c>
       <c r="D333" s="27" t="s">
         <v>236</v>
       </c>
@@ -6296,40 +6370,40 @@
       <c r="G333" s="1"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
-      <c r="D334" s="1"/>
+      <c r="A334" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B334" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="C334" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D334" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A335" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B335" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="C335" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="D335" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A336" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B336" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="C336" s="30" t="s">
-        <v>281</v>
+      <c r="A336" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B336" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C336" s="62" t="s">
+        <v>126</v>
       </c>
       <c r="D336" s="27" t="s">
         <v>236</v>
@@ -6339,14 +6413,14 @@
       <c r="G336" s="1"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A337" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B337" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="C337" s="30" t="s">
-        <v>283</v>
+      <c r="A337" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B337" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C337" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="D337" s="27" t="s">
         <v>236</v>
@@ -6356,32 +6430,20 @@
       <c r="G337" s="1"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A338" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B338" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="C338" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="D338" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A339" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B339" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="C339" s="30" t="s">
-        <v>79</v>
-      </c>
+      <c r="A339" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
       <c r="D339" s="27" t="s">
         <v>236</v>
       </c>
@@ -6399,15 +6461,11 @@
       <c r="G340" s="1"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A341" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="B341" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="C341" s="65" t="s">
-        <v>279</v>
-      </c>
+      <c r="A341" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
       <c r="D341" s="27" t="s">
         <v>236</v>
       </c>
@@ -6416,40 +6474,40 @@
       <c r="G341" s="1"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A342" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="B342" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="C342" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="D342" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
+      <c r="A343" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B343" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C343" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D343" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A344" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="B344" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="C344" s="31" t="s">
-        <v>131</v>
+      <c r="A344" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B344" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C344" s="29" t="s">
+        <v>255</v>
       </c>
       <c r="D344" s="27" t="s">
         <v>236</v>
@@ -6459,48 +6517,52 @@
       <c r="G344" s="1"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A345" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="B345" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="C345" s="31" t="s">
-        <v>292</v>
+      <c r="A345" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B345" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C345" s="29" t="s">
+        <v>259</v>
       </c>
       <c r="D345" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E345" s="1"/>
+      <c r="E345" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A346" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="B346" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="C346" s="31" t="s">
-        <v>216</v>
+      <c r="A346" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B346" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C346" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="D346" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E346" s="1"/>
+      <c r="E346" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A347" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="B347" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="C347" s="31" t="s">
-        <v>81</v>
+      <c r="A347" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B347" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C347" s="29" t="s">
+        <v>258</v>
       </c>
       <c r="D347" s="27" t="s">
         <v>236</v>
@@ -6519,15 +6581,13 @@
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A349" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B349" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C349" s="32" t="s">
-        <v>295</v>
-      </c>
+      <c r="A349" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B349" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C349" s="63"/>
       <c r="D349" s="27" t="s">
         <v>236</v>
       </c>
@@ -6536,23 +6596,31 @@
       <c r="G349" s="1"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
-      <c r="C350" s="1"/>
-      <c r="D350" s="1"/>
+      <c r="A350" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B350" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="C350" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="D350" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A351" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="B351" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="C351" s="33" t="s">
-        <v>298</v>
+      <c r="A351" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B351" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="C351" s="63" t="s">
+        <v>22</v>
       </c>
       <c r="D351" s="27" t="s">
         <v>236</v>
@@ -6562,45 +6630,53 @@
       <c r="G351" s="1"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
-      <c r="D352" s="1"/>
+      <c r="A352" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B352" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="C352" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D352" s="27" t="s">
+        <v>236</v>
+      </c>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A353" s="66" t="s">
-        <v>299</v>
-      </c>
-      <c r="B353" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="C353" s="66" t="s">
-        <v>301</v>
-      </c>
+      <c r="A353" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B353" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="C353" s="63"/>
       <c r="D353" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E353" s="1"/>
+      <c r="E353" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A354" s="66" t="s">
-        <v>299</v>
-      </c>
-      <c r="B354" s="66" t="s">
-        <v>302</v>
-      </c>
-      <c r="C354" s="66" t="s">
-        <v>295</v>
-      </c>
+      <c r="A354" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B354" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C354" s="63"/>
       <c r="D354" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E354" s="1"/>
+      <c r="E354" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
     </row>
@@ -6614,19 +6690,15 @@
       <c r="G355" s="1"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A356" s="67" t="s">
-        <v>303</v>
-      </c>
-      <c r="B356" s="67" t="s">
-        <v>304</v>
-      </c>
-      <c r="C356" s="67"/>
+      <c r="A356" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
       <c r="D356" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E356" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
     </row>
@@ -6640,11 +6712,13 @@
       <c r="G357" s="1"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A358" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B358" s="5"/>
-      <c r="C358" s="5"/>
+      <c r="A358" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="B358" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="C358" s="64"/>
       <c r="D358" s="27" t="s">
         <v>236</v>
       </c>
@@ -6663,7 +6737,7 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -6682,6 +6756,385 @@
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A362" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B362" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C362" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D362" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B363" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C363" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D363" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E363" s="1"/>
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A364" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B364" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C364" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="D364" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A365" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B365" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C365" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D365" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E365" s="1"/>
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A366" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B366" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C366" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D366" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
+      <c r="G366" s="1"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+      <c r="F367" s="1"/>
+      <c r="G367" s="1"/>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A368" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B368" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="C368" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="D368" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
+      <c r="G368" s="1"/>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A369" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B369" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="C369" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D369" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E369" s="1"/>
+      <c r="F369" s="1"/>
+      <c r="G369" s="1"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1"/>
+      <c r="F370" s="1"/>
+      <c r="G370" s="1"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A371" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B371" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C371" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D371" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E371" s="1"/>
+      <c r="F371" s="1"/>
+      <c r="G371" s="1"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A372" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B372" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C372" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="D372" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
+      <c r="G372" s="1"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A373" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B373" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C373" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D373" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B374" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C374" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D374" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+      <c r="G375" s="1"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A376" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B376" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C376" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D376" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="1"/>
+      <c r="G377" s="1"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A378" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B378" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C378" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="D378" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E378" s="1"/>
+      <c r="F378" s="1"/>
+      <c r="G378" s="1"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A380" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="B380" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="C380" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="D380" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E380" s="1"/>
+      <c r="F380" s="1"/>
+      <c r="G380" s="1"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A381" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="B381" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="C381" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="D381" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E381" s="1"/>
+      <c r="F381" s="1"/>
+      <c r="G381" s="1"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="1"/>
+      <c r="F382" s="1"/>
+      <c r="G382" s="1"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A383" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="B383" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="C383" s="67"/>
+      <c r="D383" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F383" s="1"/>
+      <c r="G383" s="1"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="1"/>
+      <c r="F384" s="1"/>
+      <c r="G384" s="1"/>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A385" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B385" s="5"/>
+      <c r="C385" s="5"/>
+      <c r="D385" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+      <c r="G385" s="1"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1"/>
+      <c r="F386" s="1"/>
+      <c r="G386" s="1"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A387" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B387" s="5"/>
+      <c r="C387" s="5"/>
+      <c r="D387" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E387" s="1"/>
+      <c r="F387" s="1"/>
+      <c r="G387" s="1"/>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
+      <c r="F388" s="1"/>
+      <c r="G388" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
